--- a/docs/01-basics/pie-chart-overview.xlsx
+++ b/docs/01-basics/pie-chart-overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/developer/github_isaqb/advanced-template/docs/01-basics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sperber/data/active-group/schulung/isaqb/funar/curriculum/docs/01-basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FF1B4-E76D-1644-8110-6BB9862D395E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647F5AF-3F0A-C948-9003-0C575CBB1B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="31540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DE-Grafik" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -47,24 +49,6 @@
     <t>Gesamt</t>
   </si>
   <si>
-    <t>Thema mit Einleitung</t>
-  </si>
-  <si>
-    <t>Thema über xz</t>
-  </si>
-  <si>
-    <t>Thema mit viel Theorie</t>
-  </si>
-  <si>
-    <t>Thema mit xy und Beispiel</t>
-  </si>
-  <si>
-    <t>Thema mit abc und d</t>
-  </si>
-  <si>
-    <t>Thema mit Abschlussbeispiel</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -81,6 +65,24 @@
   </si>
   <si>
     <t>final example</t>
+  </si>
+  <si>
+    <t>Systemstruktur</t>
+  </si>
+  <si>
+    <t>Technologien</t>
+  </si>
+  <si>
+    <t>Umsetzung von funktionalen Anforderungen</t>
+  </si>
+  <si>
+    <t>Umsetzung von nicht-funktionalen Anforderungen</t>
+  </si>
+  <si>
+    <t>Architekturmuster</t>
+  </si>
+  <si>
+    <t>Beispiel</t>
   </si>
 </sst>
 </file>
@@ -379,22 +381,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Thema mit Einleitung</c:v>
+                  <c:v>Systemstruktur</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Thema über xz</c:v>
+                  <c:v>Technologien</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thema mit viel Theorie</c:v>
+                  <c:v>Umsetzung von funktionalen Anforderungen</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Thema mit xy und Beispiel</c:v>
+                  <c:v>Umsetzung von nicht-funktionalen Anforderungen</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Thema mit abc und d</c:v>
+                  <c:v>Architekturmuster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thema mit Abschlussbeispiel</c:v>
+                  <c:v>Beispiel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -409,19 +411,19 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1222,7 +1224,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1">
         <v>180</v>
@@ -1230,48 +1232,48 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f>SUM(B1:B6)</f>
-        <v>960</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1301,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
         <v>180</v>
@@ -1307,7 +1309,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>150</v>
@@ -1315,7 +1317,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>120</v>
@@ -1323,7 +1325,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>180</v>
@@ -1331,7 +1333,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>210</v>
@@ -1339,7 +1341,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>120</v>
@@ -1361,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="249" zoomScaleNormal="249" zoomScalePageLayoutView="249" workbookViewId="0">
+    <sheetView zoomScale="249" zoomScaleNormal="249" zoomScalePageLayoutView="249" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/docs/01-basics/pie-chart-overview.xlsx
+++ b/docs/01-basics/pie-chart-overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sperber/data/active-group/schulung/isaqb/funar/curriculum/docs/01-basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647F5AF-3F0A-C948-9003-0C575CBB1B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A68B01E-D8DA-3749-846D-84CC3CB99B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="31540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18740" yWindow="2080" windowWidth="25600" windowHeight="31540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DE-Grafik" sheetId="3" r:id="rId1"/>
@@ -49,24 +49,6 @@
     <t>Gesamt</t>
   </si>
   <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>xz</t>
-  </si>
-  <si>
-    <t>Lots of theory</t>
-  </si>
-  <si>
-    <t>xy and example</t>
-  </si>
-  <si>
-    <t>abc and d</t>
-  </si>
-  <si>
-    <t>final example</t>
-  </si>
-  <si>
     <t>Systemstruktur</t>
   </si>
   <si>
@@ -83,6 +65,24 @@
   </si>
   <si>
     <t>Beispiel</t>
+  </si>
+  <si>
+    <t>System structure</t>
+  </si>
+  <si>
+    <t>Technologies</t>
+  </si>
+  <si>
+    <t>Implementation of functional requirements</t>
+  </si>
+  <si>
+    <t>Implementation of non-functional requirements</t>
+  </si>
+  <si>
+    <t>Architectural patterns</t>
+  </si>
+  <si>
+    <t>Example</t>
   </si>
 </sst>
 </file>
@@ -707,22 +707,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Introduction</c:v>
+                  <c:v>System structure</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xz</c:v>
+                  <c:v>Technologies</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Lots of theory</c:v>
+                  <c:v>Implementation of functional requirements</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>xy and example</c:v>
+                  <c:v>Implementation of non-functional requirements</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>abc and d</c:v>
+                  <c:v>Architectural patterns</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>final example</c:v>
+                  <c:v>Example</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -737,19 +737,19 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1224,7 +1224,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
         <v>180</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>120</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>240</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>240</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>240</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>60</v>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1301,7 +1301,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1">
         <v>180</v>
@@ -1309,48 +1309,48 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f>SUM(B1:B6)</f>
-        <v>960</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
